--- a/docs/ST4/ST4_06.08.24_output.xlsx
+++ b/docs/ST4/ST4_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,426 +505,505 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731443900.9501975</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731443902.2119155</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443900.9501975.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443902.2119155.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.85</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.46</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.3900000000000432</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731443902.9915323</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731443903.8983142</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443902.9915323.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443903.8983142.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.85</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731443905.0754445</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731443905.3832464</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443905.0754445.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443905.3832464.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.52</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.7</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731443906.7047522</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731443907.8689823</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443906.7047522.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443907.8689823.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>276.81</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.22</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.410000000000025</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731443907.8829453</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731443908.8831615</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443907.8829453.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443908.8831615.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.23</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.009999999999991</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731443910.8676586</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731443911.005161</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443910.8676586.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443911.005161.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>279.38</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>279.08</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731443915.0508778</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731443915.505941</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443915.0508778.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443915.505941.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>279.18</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731443918.2086585</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731443918.2086585.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731443918.2086585.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>279.69</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>279.69</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,873 +1011,1035 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731443929.0339074</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731443929.0858023</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443929.0339074.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443929.0858023.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731443930.2091124</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731443930.3022826</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443930.2091124.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443930.3022826.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.45</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.31</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731443932.819971</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731443933.032804</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443932.819971.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443933.032804.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>128.64</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>128.67</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731443933.771714</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731443934.5328465</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443933.771714.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443934.5328465.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>128.44</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>128.35</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731443935.446335</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731443936.7148638</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443935.446335.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443936.7148638.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.19</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>128.09</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731443936.928677</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731443938.2264736</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443936.928677.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443938.2264736.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.83</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.65</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.1799999999999926</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731443938.4768279</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731443939.592256</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443938.4768279.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443939.592256.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.62</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>128.26</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.6399999999999864</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731443943.4850788</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731443943.80529</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443943.4850788.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443943.80529.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>128.71</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>128.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731443948.940804</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731443948.940804.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731443948.940804.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>128.65</v>
       </c>
-      <c r="J19" t="n">
-        <v>128.65</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>128.57</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731443949.6646254</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731443950.2167537</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443949.6646254.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443950.2167537.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6495.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6451.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>44</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731443954.621989</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731443954.6708882</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443954.621989.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443954.6708882.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6424</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6425</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731443956.5661952</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731443958.0052896</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443956.5661952.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443958.0052896.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6422.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6444</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>21.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731443961.824022</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731443961.9137895</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443961.824022.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443961.9137895.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6433.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6436.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731443962.1594</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731443962.4531837</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443962.1594.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443962.4531837.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6425.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6433.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731443963.3141384</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731443965.065539</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443963.3141384.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443965.065539.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6422</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6385</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-37</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731443965.9861314</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731443967.9208438</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443965.9861314.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443967.9208438.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6371.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6375</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731443973.3839808</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731443975.3061066</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443973.3839808.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443975.3061066.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6432.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6421.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731443977.5454555</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731443977.7010798</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443977.5454555.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443977.7010798.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6435.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1791,1878 +2047,2229 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731443978.5983572</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731443978.5983572.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731443978.5983572.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6441.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>6441.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>6448</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731443990.6140378</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731443992.241976</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443990.6140378.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443992.241976.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>496.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>495.55</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731443992.7584631</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731443997.143465</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443992.7584631.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443997.143465.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>493.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>493.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731444013.660644</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731444014.599651</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444013.660644.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444014.599651.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>226.03</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>225.87</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731444016.0562913</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731444017.3247948</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444016.0562913.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444017.3247948.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>226.33</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>227.38</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.049999999999983</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731444019.7030253</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731444020.316622</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444019.7030253.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444020.316622.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>224.9</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>225.54</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731444021.3644109</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731444021.9160159</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444021.3644109.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444021.9160159.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>224.66</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>224.77</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731444030.8624618</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731444030.8624618.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731444030.8624618.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>226.45</v>
       </c>
-      <c r="J36" t="n">
-        <v>226.45</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>226.47</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731444039.9577851</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731444041.2961354</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444039.9577851.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444041.2961354.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1008.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1009.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731444042.8070886</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731444046.9050534</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444042.8070886.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444046.9050534.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1006.6</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.199999999999932</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731444047.3293667</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731444047.9476554</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444047.3293667.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444047.9476554.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1003.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1003.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731444048.3057098</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731444049.2900255</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444048.3057098.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444049.2900255.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1002.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1003.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.8000000000000682</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731444052.1087232</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731444052.4669702</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444052.1087232.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444052.4669702.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1001.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1002.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731444053.0056612</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731444053.2310867</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444053.0056612.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444053.2310867.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1003.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731444057.1869376</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731444057.2458072</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444057.1869376.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444057.2458072.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1002</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1003.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731444061.7592292</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731444061.7592292.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731444061.7592292.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1007.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>1007.4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>1008</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731444064.140975</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731444064.7344623</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444064.140975.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444064.7344623.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.867</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.855</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.01200000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731444065.1135</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731444066.2748835</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444065.1135.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444066.2748835.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>11.842</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>11.839</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731444067.6938288</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731444068.3691347</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444067.6938288.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444068.3691347.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.824</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>11.838</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.01399999999999935</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731444073.896658</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731444076.4897985</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444073.896658.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444076.4897985.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>11.891</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>11.893</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.002000000000000668</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731444078.3988588</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731444081.346129</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444078.3988588.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444081.346129.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>11.916</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>11.926</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.009999999999999787</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731444087.7429826</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731444088.1059544</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444087.7429826.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444088.1059544.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>11.904</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>11.91</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731444093.6999602</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731444093.8527424</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444093.6999602.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444093.8527424.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>125.3</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>125.78</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731444094.1899748</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731444095.9540246</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444094.1899748.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444095.9540246.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>125.48</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>124.96</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.5200000000000102</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731444107.664563</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731444107.7562425</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444107.664563.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444107.7562425.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>124.62</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>124.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731444107.9605455</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731444108.0982919</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444107.9605455.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444108.0982919.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>124.52</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>124.66</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731444108.2330396</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731444108.4738548</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444108.2330396.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444108.4738548.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>124.46</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>124.58</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731444111.3336985</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731444111.693354</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444111.3336985.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444111.693354.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>125.3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>125.34</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731444112.3931978</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731444112.7553654</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444112.3931978.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444112.7553654.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>125.72</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>125.58</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731444112.8041334</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731444112.8886616</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444112.8041334.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444112.8886616.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>125.78</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>125.5</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731444120.6830263</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731444120.9495337</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444120.6830263.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444120.9495337.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>161.98</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>161.38</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731444121.906464</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731444122.7162967</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444121.906464.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444122.7162967.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>161.98</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>162.34</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731444126.5853064</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731444131.4453366</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444126.5853064.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444131.4453366.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>159</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>160.14</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.139999999999986</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731444135.1104007</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731444135.1971316</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444135.1104007.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444135.1971316.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>158.96</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>159.02</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731444136.894293</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731444137.8037114</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444136.894293.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444137.8037114.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>158.84</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>159.06</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731444138.518118</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731444138.9005823</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444138.518118.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444138.9005823.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>158.3</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>158.6</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731444146.2119832</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731444146.2119832.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731444146.2119832.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>159.8</v>
       </c>
-      <c r="J65" t="n">
-        <v>159.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>160.26</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.4599999999999795</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731444154.3381805</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731444154.472998</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444154.3381805.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444154.472998.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>48.595</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>48.72</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731444161.3208592</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731444162.1551733</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444161.3208592.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444162.1551733.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.11</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.11</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,2964 +4277,3513 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731444166.486447</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731444168.2489753</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444166.486447.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444168.2489753.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>48.765</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>48.77</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731444168.4957423</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731444169.447969</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444168.4957423.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444169.447969.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>48.7</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>48.795</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731444180.8312316</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731444181.3217797</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444180.8312316.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444181.3217797.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1401</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1395.4</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>5.599999999999909</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731444187.6017792</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731444190.457344</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444187.6017792.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444190.457344.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1387.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>4.599999999999909</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731444191.4039028</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731444193.9343283</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444191.4039028.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444193.9343283.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1371.2</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-12</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731444194.8454452</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731444197.0077472</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444194.8454452.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444197.0077472.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1368</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1360.4</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-7.599999999999909</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731444205.1330283</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731444206.7249358</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444205.1330283.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444206.7249358.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1368.8</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1369</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731444207.4659698</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731444207.5156684</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444207.4659698.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444207.5156684.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>60.52</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>60.27</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731444218.679912</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731444218.8038144</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444218.679912.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444218.8038144.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>59.55</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>59.62</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731444219.0698807</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731444220.5918581</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444219.0698807.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444220.5918581.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>59.51</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>59.44</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731444221.8997025</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731444223.7622116</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444221.8997025.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444223.7622116.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>59.35</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>59.3</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731444227.8605928</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731444228.1637862</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444227.8605928.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444228.1637862.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>59.74</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>59.68</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731444229.0569928</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731444233.0364423</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444229.0569928.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444233.0364423.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>59.81</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>60.04</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.2299999999999969</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731444233.0514023</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731444233.4069924</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444233.0514023.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444233.4069924.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>60.04</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>60.17</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731444233.7217681</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731444233.7217681.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731444233.7217681.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>60.27</v>
       </c>
-      <c r="J82" t="n">
-        <v>60.27</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
+      <c r="L82" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01000000000000512</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731444235.6597354</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731444235.995456</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444235.6597354.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444235.995456.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>97.45</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>97.14</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731444247.7147732</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731444247.770719</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444247.7147732.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444247.770719.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>96.22</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>96.31</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731444248.461216</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731444248.7947712</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444248.461216.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444248.7947712.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>96.22</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>96.13</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731444249.1908727</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731444250.1171389</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444249.1908727.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444250.1171389.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>95.81999999999999</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>95.93000000000001</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731444265.29695</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731444265.5837445</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444265.29695.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444265.5837445.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>56.37</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>56.32</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731444274.433222</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731444274.957954</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444274.433222.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444274.957954.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>56</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>56.02</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731444275.0394263</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731444275.6544123</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444275.0394263.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444275.6544123.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>55.98</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>55.79</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731444276.7798615</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731444277.1051888</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444276.7798615.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444277.1051888.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>55.68</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>55.6</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731444277.416273</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731444278.9753156</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444277.416273.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444278.9753156.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>55.24</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>55.42</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731444279.9762852</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731444281.0656495</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444279.9762852.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444281.0656495.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>55.27</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>55.72</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.4499999999999957</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731444284.1133988</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731444288.2698665</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444284.1133988.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444288.2698665.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>55.24</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>55.37</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731444290.462427</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731444291.1327229</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444290.462427.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444291.1327229.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>144.2</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>144.3</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731444291.1486528</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731444293.7494328</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444291.1486528.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444293.7494328.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>144.3</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>143.82</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731444302.4119277</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731444304.2450116</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444302.4119277.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444304.2450116.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>143.2</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>142.58</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.6199999999999761</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731444304.3987644</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731444307.4408953</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444304.3987644.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444307.4408953.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>142.46</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>143.44</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.9799999999999898</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731444311.1213274</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731444314.2304091</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444311.1213274.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444314.2304091.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>143.98</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>143.7</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731444315.0900898</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731444315.0900898.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731444315.0900898.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>143.9</v>
       </c>
-      <c r="J99" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
+      <c r="L99" t="n">
+        <v>144.04</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.1399999999999864</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731444315.816588</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731444316.2127995</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444315.816588.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444316.2127995.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>20.142</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>20.058</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.08399999999999963</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731444317.3279803</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731444317.6048925</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444317.3279803.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444317.6048925.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>20.125</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>20.119</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731444326.6493447</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731444327.40677</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444326.6493447.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444327.40677.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>19.874</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>19.901</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.02700000000000102</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731444327.8378236</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731444329.585265</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444327.8378236.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444329.585265.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>19.863</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>19.74</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.1230000000000011</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731444330.8940175</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731444333.9679494</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444330.8940175.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444333.9679494.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>19.708</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>19.705</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731444333.9839377</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731444334.7446544</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444333.9839377.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444334.7446544.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>19.705</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>19.728</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.02300000000000324</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731444335.307819</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731444335.5504057</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444335.307819.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444335.5504057.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>19.932</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>19.9</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731444345.581421</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731444346.5609815</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444345.581421.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444346.5609815.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>668.5</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>671</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731444346.5779068</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731444348.7314224</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444346.5779068.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444348.7314224.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>671</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>668.1</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-2.899999999999977</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731444352.4044864</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731444355.62425</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444352.4044864.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444355.62425.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>669.25</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>668.75</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731444356.963105</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731444357.5798109</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444356.963105.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444357.5798109.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>667.3</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>666.5</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731444357.9787538</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731444359.4919295</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444357.9787538.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444359.4919295.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>663.2</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>662.2</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731444365.402878</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731444365.561706</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444365.402878.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444365.561706.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>671</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>669.95</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>1.049999999999955</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731444370.655349</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731444371.6451013</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444370.655349.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444371.6451013.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>670.6</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>670.65</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.04999999999995453</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731444374.9271839</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731444375.2606454</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444374.9271839.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444375.2606454.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>155.26</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>155.05</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.2099999999999795</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731444376.2139275</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731444376.7917705</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444376.2139275.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444376.7917705.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>155.38</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>154.54</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731444381.080782</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731444381.9113631</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444381.080782.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444381.9113631.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>151.75</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>152</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731444384.026175</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731444389.6431777</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444384.026175.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444389.6431777.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>151.73</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>150.34</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-1.389999999999986</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731444389.880512</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731444393.524897</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444389.880512.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444393.524897.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>149.83</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>148.36</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-1.469999999999999</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.98</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731444414.2491968</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731444417.9172225</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444414.2491968.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444417.9172225.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>0.09556000000000001</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.09524000000000001</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-0.0003200000000000008</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731444417.9341798</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731444419.194805</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444417.9341798.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444419.194805.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>0.09524000000000001</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.0949</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.000340000000000007</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731444419.8773031</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731444420.4924521</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444419.8773031.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444420.4924521.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>0.09494000000000001</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>-0.0002599999999999963</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731444440.5375307</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731444440.712644</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444440.5375307.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444440.712644.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>2908.1</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>2908.85</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731444441.6681864</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731444443.3015232</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444441.6681864.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444443.3015232.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>2904</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>2896.8</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-7.199999999999818</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731444444.223858</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731444445.9797297</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444444.223858.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444445.9797297.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>2892.9</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>2890.2</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>-2.700000000000273</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731444446.4747548</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731444447.8156655</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444446.4747548.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444447.8156655.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>2888.1</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>2905.7</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>-17.59999999999991</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731444450.7623284</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731444450.9324806</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444450.7623284.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444450.9324806.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>2905.85</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>2902.5</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>3.349999999999909</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731444451.402345</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731444454.9873595</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444451.402345.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444454.9873595.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>2907.4</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>2905.15</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>2.25</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731444457.2844114</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731444457.2844114.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731444457.2844114.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>2909.55</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>2909.55</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6642,7 +7798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6671,6 +7827,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6679,13 +7845,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>48.5</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>4.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -6695,13 +7867,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6799999999999642</v>
+        <v>-0.5999999999999517</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07555555555555157</v>
+        <v>-0.0666666666666613</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="4">
@@ -6711,13 +7889,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.200000000000159</v>
+        <v>5.600000000000136</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7750000000000199</v>
+        <v>0.7000000000000171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6735,6 +7919,12 @@
       <c r="D5" t="n">
         <v>0.08499999999999908</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6751,6 +7941,12 @@
       <c r="D6" t="n">
         <v>-0.02249999999999375</v>
       </c>
+      <c r="E6" t="n">
+        <v>-0.05999999999999998</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6759,13 +7955,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1600000000000037</v>
+        <v>0.1700000000000088</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02000000000000046</v>
+        <v>0.0212500000000011</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -6783,6 +7985,12 @@
       <c r="D8" t="n">
         <v>0.00742857142857188</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6799,6 +8007,12 @@
       <c r="D9" t="n">
         <v>-0.8142857142857045</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6815,6 +8029,12 @@
       <c r="D10" t="n">
         <v>-0.02571428571428567</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.3099999999999998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6831,6 +8051,12 @@
       <c r="D11" t="n">
         <v>-3.021428571428584</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.7200000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6839,13 +8065,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.959999999999951</v>
+        <v>1.499999999999972</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279999999999993</v>
+        <v>0.2142857142857102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="13">
@@ -6855,13 +8087,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.900000000000006</v>
+        <v>-2.039999999999992</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3166666666666676</v>
+        <v>-0.3399999999999987</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="14">
@@ -6879,6 +8117,12 @@
       <c r="D14" t="n">
         <v>-0.0008333333333331675</v>
       </c>
+      <c r="E14" t="n">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6895,6 +8139,12 @@
       <c r="D15" t="n">
         <v>-0.3120000000000004</v>
       </c>
+      <c r="E15" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6903,13 +8153,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1399999999999864</v>
+        <v>-0.1599999999999966</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02799999999999727</v>
+        <v>-0.03199999999999932</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17">
@@ -6927,6 +8183,12 @@
       <c r="D17" t="n">
         <v>-1.920000000000027</v>
       </c>
+      <c r="E17" t="n">
+        <v>-0.7099999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6943,6 +8205,12 @@
       <c r="D18" t="n">
         <v>0.05625000000000036</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6959,6 +8227,12 @@
       <c r="D19" t="n">
         <v>0.105000000000004</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6975,6 +8249,12 @@
       <c r="D20" t="n">
         <v>-7.999999999999674e-05</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6991,6 +8271,12 @@
       <c r="D21" t="n">
         <v>-0.4749999999999943</v>
       </c>
+      <c r="E21" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -7005,6 +8291,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
